--- a/接口表.xlsx
+++ b/接口表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\徐晨标\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\徐晨标\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3D51D1-ED53-4BA8-B7EC-980A108EB5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49634528-0DF3-4933-ADAA-D6A40857AB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5844" yWindow="2868" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,18 +51,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data=全部图书信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data=对应id全部信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回数据条数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data=null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>put</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data=全部借书信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取全部借书信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data=对应名字的书的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据名字查书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,6 +200,26 @@
   </si>
   <si>
     <t>用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部借书信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应名字的书的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 全部图书信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 对应id全部信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,8 +263,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -545,329 +551,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="K13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" t="s">
-        <v>48</v>
-      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="9:18" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/接口表.xlsx
+++ b/接口表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\徐晨标\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49634528-0DF3-4933-ADAA-D6A40857AB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D097CED1-F083-4173-A2A6-CAC52E15AC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,26 +183,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/enrolls</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全部借书信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,6 +204,113 @@
   </si>
   <si>
     <t xml:space="preserve"> null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adminis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true or false</t>
+  </si>
+  <si>
+    <t>学生登录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生注册状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员登录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adminiplus/admininame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部用户username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得用户的账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adminiplus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部用户的password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级密码登录状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入二级密码（123456）以获得用户密码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于Book属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EJ(二级密码)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +328,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -263,12 +363,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -554,7 +657,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -623,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
@@ -655,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
@@ -687,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
@@ -719,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
@@ -751,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
@@ -785,7 +888,7 @@
         <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
@@ -815,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
@@ -847,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
@@ -949,10 +1052,10 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -962,7 +1065,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -983,10 +1086,10 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -994,86 +1097,237 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I20" s="1"/>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" t="s">
+        <v>69</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="9:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="36">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="K13:P13"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="K2:P2"/>
@@ -1087,19 +1341,6 @@
     <mergeCell ref="K10:P10"/>
     <mergeCell ref="K11:P11"/>
     <mergeCell ref="K12:P12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/接口表.xlsx
+++ b/接口表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\徐晨标\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D097CED1-F083-4173-A2A6-CAC52E15AC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2BF182-827E-41A5-A09C-81743D9983D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +311,18 @@
   </si>
   <si>
     <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adminiplus/name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个用户的name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过名字查询用户名字（模糊）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,7 +669,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="K17" sqref="K17:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1189,23 +1201,50 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>71</v>
       </c>
@@ -1229,7 +1268,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
         <v>67</v>
@@ -1249,7 +1288,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
         <v>70</v>
@@ -1263,58 +1302,62 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:P16"/>
+  <mergeCells count="38">
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="K12:P12"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
@@ -1328,19 +1371,17 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/接口表.xlsx
+++ b/接口表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\徐晨标\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2BF182-827E-41A5-A09C-81743D9983D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12397D10-A6FD-4E53-85FB-40DF7FB261C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +323,14 @@
   </si>
   <si>
     <t>通过名字查询用户名字（模糊）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admininame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminipassword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +677,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:P17"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1303,6 +1311,16 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>76</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="Q23" s="1"/>
@@ -1343,7 +1361,31 @@
       <c r="J29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="K17:P17"/>
     <mergeCell ref="K13:P13"/>
     <mergeCell ref="K1:P1"/>
@@ -1358,30 +1400,7 @@
     <mergeCell ref="K10:P10"/>
     <mergeCell ref="K11:P11"/>
     <mergeCell ref="K12:P12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="K14:P14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/接口表.xlsx
+++ b/接口表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\徐晨标\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12397D10-A6FD-4E53-85FB-40DF7FB261C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2081FC86-2FAD-49A9-8BCF-EFB87F252F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +331,18 @@
   </si>
   <si>
     <t>adminipassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adminiplus/admini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取全部用户账号密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +689,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="K18" sqref="K18:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1241,8 +1253,31 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="1"/>
+      <c r="K18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
@@ -1361,7 +1396,41 @@
       <c r="J29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="41">
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="K18:P18"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
@@ -1369,38 +1438,6 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K14:P14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/接口表.xlsx
+++ b/接口表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2081FC86-2FAD-49A9-8BCF-EFB87F252F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3110A2C0-DF5F-4F7D-9885-F2043833A437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,30 @@
   </si>
   <si>
     <t>获取全部用户账号密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id删除用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id修改用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应名字的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据名字查找对应用户全部信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +713,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:P18"/>
+      <selection activeCell="K27" sqref="K27:P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1368,20 +1392,98 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I25" s="1"/>
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="2"/>
       <c r="J25" s="1"/>
+      <c r="K25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I26" s="1"/>
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="2"/>
       <c r="J26" s="1"/>
+      <c r="K26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I27" s="1"/>
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="1"/>
+      <c r="K27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
@@ -1396,27 +1498,20 @@
       <c r="J29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
+  <mergeCells count="47">
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="K15:P15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="K16:P16"/>
@@ -1431,13 +1526,26 @@
     <mergeCell ref="K14:P14"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="K18:P18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="K10:P10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/接口表.xlsx
+++ b/接口表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\软件设计项目\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3110A2C0-DF5F-4F7D-9885-F2043833A437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA9C7F9-4B71-45C8-9B55-239DB6743042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="88">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,14 @@
   </si>
   <si>
     <t>根据名字查找对应用户全部信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断token是否合理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +721,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27:P27"/>
+      <selection activeCell="K28" sqref="K28:P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1488,8 +1496,34 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I28" s="1"/>
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="2"/>
       <c r="J28" s="1"/>
+      <c r="K28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
@@ -1498,20 +1532,29 @@
       <c r="J29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="K27:P27"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H15:I15"/>
+  <mergeCells count="49">
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="K15:P15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="K16:P16"/>
@@ -1526,26 +1569,19 @@
     <mergeCell ref="K14:P14"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="K18:P18"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K27:P27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/接口表.xlsx
+++ b/接口表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\软件设计项目\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA9C7F9-4B71-45C8-9B55-239DB6743042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F0CF61-08C6-4419-98DC-050BC407CDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,14 @@
   </si>
   <si>
     <t>判断token是否合理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/counts/rtotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得学生购书全部信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,7 +729,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:P28"/>
+      <selection activeCell="K29" sqref="K29:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1528,36 +1536,38 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
+      <c r="K29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:P28"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:P16"/>
+  <mergeCells count="50">
+    <mergeCell ref="K29:P29"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K27:P27"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
@@ -1569,19 +1579,32 @@
     <mergeCell ref="K14:P14"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="K18:P18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
     <mergeCell ref="H25:I25"/>
-    <mergeCell ref="K25:P25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:P26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="K27:P27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/接口表.xlsx
+++ b/接口表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\软件设计项目\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F0CF61-08C6-4419-98DC-050BC407CDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1A09DE-EDE8-44F2-858A-6FD7A425A37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5244" yWindow="2520" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增图书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/borrows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,6 +379,62 @@
   </si>
   <si>
     <t>获得学生购书全部信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/counts/admins/id/b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除历史购书信息，如果b不为0，删小不删大，如果b为0，两者都删</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增图书，书名相同新增失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/counts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除两者全部历史信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/adminiplus/admini/{current}/{size}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/counts/{current}/{size}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员历史记录分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息分页，current为当前页数，size为当前显示数据条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/counts/rtotal/{current}/{size}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生历史记录分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/borrowOver/{current}/{size}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借书记录分页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:P29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -763,14 +815,14 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>12</v>
@@ -798,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
@@ -830,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
@@ -862,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
@@ -894,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
@@ -922,16 +974,16 @@
       <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -941,13 +993,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -957,15 +1009,15 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -975,7 +1027,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -990,12 +1042,12 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1005,10 +1057,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1022,12 +1074,12 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
       <c r="K9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1037,13 +1089,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -1061,7 +1113,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1071,7 +1123,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -1093,7 +1145,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
       <c r="K11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1103,12 +1155,12 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -1117,17 +1169,17 @@
         <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1137,12 +1189,12 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -1151,17 +1203,17 @@
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1171,10 +1223,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -1183,17 +1235,17 @@
         <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1203,7 +1255,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
@@ -1215,11 +1267,11 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1229,10 +1281,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -1241,17 +1293,17 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1263,10 +1315,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
@@ -1278,11 +1330,11 @@
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1294,7 +1346,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
@@ -1306,12 +1358,12 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
       <c r="K18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1329,23 +1381,23 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s">
         <v>63</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>64</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="J20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1354,17 +1406,17 @@
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
         <v>68</v>
-      </c>
-      <c r="H21" t="s">
-        <v>69</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1374,11 +1426,11 @@
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1387,14 +1439,14 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s">
         <v>75</v>
-      </c>
-      <c r="G23" t="s">
-        <v>76</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1409,7 +1461,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1429,7 +1481,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
       <c r="K25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1441,10 +1493,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1461,7 +1513,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
       <c r="K26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1473,10 +1525,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -1488,12 +1540,12 @@
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
       <c r="K27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1505,10 +1557,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1517,7 +1569,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>10</v>
@@ -1525,7 +1577,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
       <c r="K28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1537,7 +1589,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -1545,7 +1597,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1553,14 +1605,131 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="K30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="K31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="58">
+    <mergeCell ref="K32:P32"/>
+    <mergeCell ref="K33:P33"/>
+    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="K35:P35"/>
     <mergeCell ref="K29:P29"/>
     <mergeCell ref="K25:P25"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="K26:P26"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="K27:P27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
@@ -1569,7 +1738,7 @@
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="K17:P17"/>
@@ -1577,34 +1746,35 @@
     <mergeCell ref="K11:P11"/>
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="K14:P14"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="K5:P5"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:P28"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="K30:P30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="K31:P31"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K18:P18"/>
     <mergeCell ref="K6:P6"/>
     <mergeCell ref="K7:P7"/>
     <mergeCell ref="K8:P8"/>
     <mergeCell ref="K9:P9"/>
     <mergeCell ref="K10:P10"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
